--- a/scraper/top_remaining_spreadsheets_states/top_remaining_VT.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_VT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>LUCKY SYMBOLS</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Bee Merry</t>
@@ -80,15 +80,15 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Snowfall Fun</t>
+  </si>
+  <si>
+    <t>ACE IN THE HOLE</t>
+  </si>
+  <si>
     <t>TRIPLE 333s</t>
   </si>
   <si>
-    <t>ACE IN THE HOLE</t>
-  </si>
-  <si>
-    <t>Snowfall Fun</t>
-  </si>
-  <si>
     <t>Cash Vault</t>
   </si>
   <si>
@@ -107,12 +107,12 @@
     <t>Hearts</t>
   </si>
   <si>
+    <t>LUCKY 13</t>
+  </si>
+  <si>
     <t>Tap Into Cash</t>
   </si>
   <si>
-    <t>LUCKY 13</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -161,27 +161,21 @@
     <t>GREAT 8s</t>
   </si>
   <si>
+    <t>QUEEN'S QUEST</t>
+  </si>
+  <si>
     <t>802 Doubler</t>
   </si>
   <si>
-    <t>QUEEN'S QUEST</t>
-  </si>
-  <si>
     <t>WILD CHERRIES</t>
   </si>
   <si>
+    <t>JOKER'S JEST</t>
+  </si>
+  <si>
     <t>Frogger</t>
   </si>
   <si>
-    <t>JOKER'S JEST</t>
-  </si>
-  <si>
-    <t>$500 Fever!</t>
-  </si>
-  <si>
-    <t>2019-02-07</t>
-  </si>
-  <si>
     <t>Xtreme Cash</t>
   </si>
   <si>
@@ -197,49 +191,49 @@
     <t>Patriots</t>
   </si>
   <si>
+    <t>Super Coolest Cashword!</t>
+  </si>
+  <si>
     <t>Mission: Money</t>
   </si>
   <si>
-    <t>Super Coolest Cashword!</t>
+    <t>Lucky Break!</t>
   </si>
   <si>
     <t>Casino Cash</t>
   </si>
   <si>
-    <t>Lucky Break!</t>
-  </si>
-  <si>
     <t>3 Of A Kind</t>
   </si>
   <si>
+    <t>Double Your Money</t>
+  </si>
+  <si>
     <t>Ruby Red 7s</t>
   </si>
   <si>
     <t>2019-02-27</t>
   </si>
   <si>
-    <t>Double Your Money</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>$10,000 SPECTACULAR</t>
+  </si>
+  <si>
     <t>TIGER'S SHARE</t>
   </si>
   <si>
-    <t>$10,000 SPECTACULAR</t>
-  </si>
-  <si>
     <t>$1,000 Bankroll</t>
   </si>
   <si>
+    <t>$50,000 Riches</t>
+  </si>
+  <si>
+    <t>Super Triple 777</t>
+  </si>
+  <si>
     <t>Hit It Big</t>
-  </si>
-  <si>
-    <t>$50,000 Riches</t>
-  </si>
-  <si>
-    <t>Super Triple 777</t>
   </si>
   <si>
     <t>Winter Ca$h</t>
@@ -608,7 +602,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +644,7 @@
         <v>1506</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -810,7 +804,7 @@
         <v>1475</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -867,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>1465</v>
+        <v>1487</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -907,10 +901,10 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>1487</v>
+        <v>1465</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1047,7 +1041,7 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1067,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1367,10 +1361,10 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>1472</v>
+        <v>1479</v>
       </c>
       <c r="E38">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1387,10 +1381,10 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1427,10 +1421,10 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1447,10 +1441,10 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1463,17 +1457,17 @@
       <c r="B43" t="s">
         <v>39</v>
       </c>
-      <c r="C43" t="s">
-        <v>53</v>
+      <c r="C43">
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1483,11 +1477,11 @@
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44">
-        <v>21</v>
+      <c r="C44" t="s">
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>1462</v>
+        <v>1473</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1504,10 +1498,10 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1524,10 +1518,10 @@
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1544,10 +1538,10 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1564,10 +1558,10 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>1441</v>
+        <v>1471</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1584,10 +1578,10 @@
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1604,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>1443</v>
@@ -1624,10 +1618,10 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1644,7 +1638,7 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <v>1452</v>
@@ -1664,10 +1658,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1684,10 +1678,10 @@
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>1444</v>
+        <v>1460</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1704,7 +1698,7 @@
         <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55">
         <v>1453</v>
@@ -1713,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1721,16 +1715,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
       </c>
       <c r="D56">
-        <v>1460</v>
+        <v>1501</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1741,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
         <v>68</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
       </c>
       <c r="D57">
         <v>1481</v>
@@ -1761,16 +1755,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58">
-        <v>1501</v>
+        <v>1426</v>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1781,16 +1775,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59">
-        <v>1426</v>
+        <v>1457</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1801,16 +1795,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60">
-        <v>1482</v>
+        <v>1458</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1821,13 +1815,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61">
-        <v>1457</v>
+        <v>1482</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1841,13 +1835,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62">
-        <v>1458</v>
+        <v>1483</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1861,13 +1855,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63">
-        <v>1483</v>
+        <v>1455</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1881,13 +1875,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64">
-        <v>1455</v>
+        <v>1424</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1901,19 +1895,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1921,19 +1915,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>1427</v>
+        <v>1493</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1941,16 +1935,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
         <v>79</v>
       </c>
-      <c r="C67" t="s">
-        <v>80</v>
-      </c>
       <c r="D67">
-        <v>1493</v>
+        <v>1459</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1961,13 +1955,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>1459</v>
+        <v>1477</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1981,38 +1975,18 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
       </c>
       <c r="D69">
-        <v>1477</v>
+        <v>1497</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70">
-        <v>1497</v>
-      </c>
-      <c r="E70">
-        <v>24</v>
-      </c>
-      <c r="F70" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_VT.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_VT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>STATE</t>
   </si>
@@ -41,27 +41,27 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Wise Winter Winnings</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Bee Merry</t>
+  </si>
+  <si>
     <t>LUCKY SYMBOLS</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>Bee Merry</t>
-  </si>
-  <si>
-    <t>Wise Winter Winnings</t>
-  </si>
-  <si>
     <t>Buck, Buck, Moose</t>
   </si>
   <si>
+    <t>I Heart Cash</t>
+  </si>
+  <si>
     <t>Lucky Slug</t>
   </si>
   <si>
-    <t>I Heart Cash</t>
-  </si>
-  <si>
     <t>Chimp Change</t>
   </si>
   <si>
@@ -74,43 +74,55 @@
     <t>Winning Streak</t>
   </si>
   <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
     <t>TRIPLE YOUR LUCK!</t>
   </si>
   <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>TRIPLE 333s</t>
+  </si>
+  <si>
+    <t>5 Grand</t>
+  </si>
+  <si>
+    <t>ACE IN THE HOLE</t>
+  </si>
+  <si>
+    <t>Money Bag Multiplier</t>
+  </si>
+  <si>
+    <t>Cash Vault</t>
+  </si>
+  <si>
     <t>Snowfall Fun</t>
   </si>
   <si>
-    <t>ACE IN THE HOLE</t>
-  </si>
-  <si>
-    <t>TRIPLE 333s</t>
-  </si>
-  <si>
-    <t>Cash Vault</t>
+    <t>Double Match</t>
+  </si>
+  <si>
+    <t>Holiday Fun</t>
+  </si>
+  <si>
+    <t>Money Tree</t>
   </si>
   <si>
     <t>It Takes 2</t>
   </si>
   <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>Holiday Fun</t>
-  </si>
-  <si>
-    <t>Money Tree</t>
+    <t>LUCKY 13</t>
+  </si>
+  <si>
+    <t>Tap Into Cash</t>
   </si>
   <si>
     <t>Hearts</t>
   </si>
   <si>
-    <t>LUCKY 13</t>
-  </si>
-  <si>
-    <t>Tap Into Cash</t>
+    <t>2019-03-29</t>
   </si>
   <si>
     <t>$3.00 Games</t>
@@ -119,6 +131,12 @@
     <t>Happy Happy Cashword</t>
   </si>
   <si>
+    <t>Cashwords!</t>
+  </si>
+  <si>
+    <t>BINGO! SQUARED</t>
+  </si>
+  <si>
     <t>BLOCK BUSTER CASHWORD!</t>
   </si>
   <si>
@@ -146,36 +164,36 @@
     <t>Holiday Tree</t>
   </si>
   <si>
+    <t>GREAT 8s</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>SILVER AND GOLD</t>
+  </si>
+  <si>
+    <t>JOKER'S JEST</t>
+  </si>
+  <si>
+    <t>802 Doubler</t>
+  </si>
+  <si>
+    <t>HIGH ROLLER</t>
+  </si>
+  <si>
+    <t>WILD CHERRIES</t>
+  </si>
+  <si>
+    <t>QUEEN'S QUEST</t>
+  </si>
+  <si>
+    <t>Frogger</t>
+  </si>
+  <si>
     <t>Cash Flurries</t>
   </si>
   <si>
-    <t>HIGH ROLLER</t>
-  </si>
-  <si>
-    <t>MONEY</t>
-  </si>
-  <si>
-    <t>SILVER AND GOLD</t>
-  </si>
-  <si>
-    <t>GREAT 8s</t>
-  </si>
-  <si>
-    <t>QUEEN'S QUEST</t>
-  </si>
-  <si>
-    <t>802 Doubler</t>
-  </si>
-  <si>
-    <t>WILD CHERRIES</t>
-  </si>
-  <si>
-    <t>JOKER'S JEST</t>
-  </si>
-  <si>
-    <t>Frogger</t>
-  </si>
-  <si>
     <t>Xtreme Cash</t>
   </si>
   <si>
@@ -185,34 +203,31 @@
     <t>Did I Win?</t>
   </si>
   <si>
+    <t>Patriots</t>
+  </si>
+  <si>
+    <t>Mission: Money</t>
+  </si>
+  <si>
+    <t>Super Coolest Cashword!</t>
+  </si>
+  <si>
+    <t>Casino Cash</t>
+  </si>
+  <si>
+    <t>Double Your Money</t>
+  </si>
+  <si>
     <t>Aces</t>
   </si>
   <si>
-    <t>Patriots</t>
-  </si>
-  <si>
-    <t>Super Coolest Cashword!</t>
-  </si>
-  <si>
-    <t>Mission: Money</t>
+    <t>3 Of A Kind</t>
   </si>
   <si>
     <t>Lucky Break!</t>
   </si>
   <si>
-    <t>Casino Cash</t>
-  </si>
-  <si>
-    <t>3 Of A Kind</t>
-  </si>
-  <si>
-    <t>Double Your Money</t>
-  </si>
-  <si>
-    <t>Ruby Red 7s</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
+    <t>2019-03-21</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -221,21 +236,24 @@
     <t>$10,000 SPECTACULAR</t>
   </si>
   <si>
+    <t>Wild $10</t>
+  </si>
+  <si>
+    <t>$1,000 Bankroll</t>
+  </si>
+  <si>
     <t>TIGER'S SHARE</t>
   </si>
   <si>
-    <t>$1,000 Bankroll</t>
-  </si>
-  <si>
     <t>$50,000 Riches</t>
   </si>
   <si>
+    <t>Hit It Big</t>
+  </si>
+  <si>
     <t>Super Triple 777</t>
   </si>
   <si>
-    <t>Hit It Big</t>
-  </si>
-  <si>
     <t>Winter Ca$h</t>
   </si>
   <si>
@@ -245,19 +263,16 @@
     <t>Double Diamond</t>
   </si>
   <si>
-    <t>Money Mania</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>VIP</t>
+  </si>
+  <si>
     <t>BIG MONEY</t>
   </si>
   <si>
     <t>50X the Money</t>
-  </si>
-  <si>
-    <t>VIP</t>
   </si>
   <si>
     <t>$25.00 Games</t>
@@ -602,7 +617,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -681,10 +696,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1484</v>
+        <v>1506</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -704,7 +719,7 @@
         <v>1474</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -721,10 +736,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1386</v>
+        <v>1405</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -741,10 +756,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1405</v>
+        <v>1386</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -764,7 +779,7 @@
         <v>1406</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -804,7 +819,7 @@
         <v>1475</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -841,10 +856,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1385</v>
+        <v>1476</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -855,16 +870,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
       <c r="D13">
-        <v>1487</v>
+        <v>1385</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -875,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14">
-        <v>1404</v>
+        <v>1465</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -895,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15">
-        <v>1465</v>
+        <v>1509</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -915,13 +930,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -935,16 +950,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>1464</v>
+        <v>1510</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -955,16 +970,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -975,13 +990,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -995,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1015,13 +1030,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>1389</v>
+        <v>1486</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1035,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1390</v>
+        <v>1411</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1055,13 +1070,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>1387</v>
+        <v>1464</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1075,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
       <c r="D24">
-        <v>1467</v>
+        <v>1390</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1095,13 +1110,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>1440</v>
+        <v>1387</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1115,19 +1130,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>1389</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>35</v>
-      </c>
-      <c r="D26">
-        <v>1466</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1135,16 +1150,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1155,16 +1170,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>1468</v>
+        <v>1489</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1175,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>1432</v>
+        <v>1469</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1195,16 +1210,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>1470</v>
+        <v>1440</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1215,16 +1230,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31">
-        <v>1491</v>
+        <v>1466</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1235,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1255,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>1492</v>
+        <v>1468</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1275,19 +1290,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>1495</v>
+        <v>1432</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1295,16 +1310,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>1496</v>
+        <v>1470</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1315,16 +1330,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1335,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>1504</v>
+        <v>1490</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1355,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>1479</v>
+        <v>1504</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1375,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>1472</v>
+        <v>1496</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1395,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1415,10 +1430,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>1480</v>
@@ -1435,16 +1450,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>1478</v>
+        <v>1503</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1455,16 +1470,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>1472</v>
+      </c>
+      <c r="E43">
         <v>21</v>
-      </c>
-      <c r="D43">
-        <v>1462</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1475,16 +1490,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>1473</v>
+        <v>1495</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1495,16 +1510,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>1463</v>
+        <v>1500</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1515,16 +1530,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>1451</v>
+        <v>1479</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1535,16 +1550,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1441</v>
+        <v>1478</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1555,13 +1570,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1575,13 +1590,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
       </c>
       <c r="D49">
-        <v>1461</v>
+        <v>1492</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1595,13 +1610,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>59</v>
       </c>
       <c r="D50">
-        <v>1443</v>
+        <v>1473</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1615,13 +1630,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51">
-        <v>1454</v>
+        <v>1463</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1635,13 +1650,13 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
       </c>
       <c r="D52">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1655,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
         <v>62</v>
       </c>
       <c r="D53">
-        <v>1444</v>
+        <v>1471</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1675,13 +1690,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
       </c>
       <c r="D54">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1695,19 +1710,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
       </c>
       <c r="D55">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1715,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>1501</v>
+        <v>1452</v>
       </c>
       <c r="E56">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1735,16 +1750,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
       <c r="D57">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1755,19 +1770,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1775,19 +1790,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1795,19 +1810,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1815,16 +1830,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
       </c>
       <c r="D61">
-        <v>1482</v>
+        <v>1501</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1835,16 +1850,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62">
-        <v>1483</v>
+        <v>1502</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1855,16 +1870,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>74</v>
       </c>
       <c r="D63">
-        <v>1455</v>
+        <v>1426</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1875,16 +1890,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64">
-        <v>1424</v>
+        <v>1481</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1895,19 +1910,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="D65">
-        <v>1427</v>
+        <v>1457</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1915,16 +1930,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
         <v>77</v>
       </c>
-      <c r="C66" t="s">
-        <v>78</v>
-      </c>
       <c r="D66">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1935,13 +1950,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1955,13 +1970,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1975,18 +1990,118 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <v>1455</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
         <v>81</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D70">
+        <v>1424</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
         <v>82</v>
       </c>
-      <c r="D69">
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>1477</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72">
+        <v>1493</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>1459</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
         <v>1497</v>
       </c>
-      <c r="E69">
-        <v>23</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
         <v>9</v>
       </c>
     </row>
